--- a/output/part1/grs_size_bm3.xlsx
+++ b/output/part1/grs_size_bm3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.927013455151283</v>
+        <v>10.47446473282706</v>
       </c>
       <c r="B2" t="n">
-        <v>8.182565736092329e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06797416764778809</v>
+        <v>0.006439227036331363</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.39132861086537</v>
+        <v>1.130144420033082</v>
       </c>
       <c r="E2" t="n">
-        <v>207.1103391859123</v>
+        <v>1.27722641013191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.619873480756585</v>
+        <v>8.270020286634312</v>
       </c>
       <c r="B3" t="n">
-        <v>7.849212135813133e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05652356217565099</v>
+        <v>0.005957891004521166</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.9670337376017</v>
+        <v>1.045665455796858</v>
       </c>
       <c r="E3" t="n">
-        <v>143.2098964768973</v>
+        <v>1.093416245446851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.514531841968913</v>
+        <v>9.807276981582211</v>
       </c>
       <c r="B4" t="n">
-        <v>1.642510125687835e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04261968554707576</v>
+        <v>0.006272018461888336</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.02333814777761</v>
+        <v>1.100797755235852</v>
       </c>
       <c r="E4" t="n">
-        <v>81.42063132913867</v>
+        <v>1.211755697932291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.156395811739003</v>
+        <v>9.364191565654082</v>
       </c>
       <c r="B5" t="n">
-        <v>1.664890447727885e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08480900666107923</v>
+        <v>0.006594109795157517</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.95556056449009</v>
+        <v>1.15732778919511</v>
       </c>
       <c r="E5" t="n">
-        <v>322.4021551850715</v>
+        <v>1.33940761164324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.98309998577071</v>
+        <v>7.668068050422462</v>
       </c>
       <c r="B6" t="n">
-        <v>6.579381419791197e-06</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03987430774630026</v>
+        <v>0.005562046108038715</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.442093309346392</v>
+        <v>0.9761909834053566</v>
       </c>
       <c r="E6" t="n">
-        <v>71.2689394437111</v>
+        <v>0.9529488360819172</v>
       </c>
     </row>
   </sheetData>
